--- a/MyMojioWebsite/src/com/mojio/xls/MyVehicles.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/MyVehicles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="155">
   <si>
     <t>TCID</t>
   </si>
@@ -225,24 +225,36 @@
     <t>vehicleNameId</t>
   </si>
   <si>
+    <t>TS008</t>
+  </si>
+  <si>
     <t>Clear the vehicle license plate field</t>
   </si>
   <si>
     <t>vehicleLicensePlateId</t>
   </si>
   <si>
+    <t>TS009</t>
+  </si>
+  <si>
     <t>Write vehicle name</t>
   </si>
   <si>
     <t>writeCurrentDateById</t>
   </si>
   <si>
+    <t>TS010</t>
+  </si>
+  <si>
     <t>Write text in license plate field</t>
   </si>
   <si>
     <t>col|Vehicle_licence_Plate</t>
   </si>
   <si>
+    <t>TS011</t>
+  </si>
+  <si>
     <t>Select Mojio ID from dropdown</t>
   </si>
   <si>
@@ -255,9 +267,15 @@
     <t>col|Mojio_Id</t>
   </si>
   <si>
+    <t>TS012</t>
+  </si>
+  <si>
     <t>vehicleEditSubmitId</t>
   </si>
   <si>
+    <t>TS013</t>
+  </si>
+  <si>
     <t>Verify the vehicle updated</t>
   </si>
   <si>
@@ -306,9 +324,6 @@
     <t>col|Status_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified STATUS -- Status </t>
-  </si>
-  <si>
     <t>Verify the Name column present</t>
   </si>
   <si>
@@ -318,9 +333,6 @@
     <t>col|Name_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified NAME -- Name </t>
-  </si>
-  <si>
     <t>Verify the License Plate column present</t>
   </si>
   <si>
@@ -330,9 +342,6 @@
     <t>col|License_Plate_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified LICENSE PLATE -- License Plate </t>
-  </si>
-  <si>
     <t>Verify the Last Location column present</t>
   </si>
   <si>
@@ -342,9 +351,6 @@
     <t>col|Last_Location_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified LAST LOCATION -- Last Location </t>
-  </si>
-  <si>
     <t>Verify the Last Contact time column present</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
     <t>col|Last_Contact_Time_Column</t>
   </si>
   <si>
-    <t>FAIL -- text not verified LAST CONTACT TIME -- Last Contact Time </t>
-  </si>
-  <si>
     <t>allVehicleStatusColumn</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
   </si>
   <si>
     <t>col|Load_Vehicle_Column</t>
-  </si>
-  <si>
-    <t>FAIL -- text not verified LOAD VEHICLE -- Load Vehicle </t>
   </si>
   <si>
     <t>Close the browser</t>
@@ -496,9 +496,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="GENERAL"/>
+  <numFmts count="1">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -626,7 +625,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -646,11 +645,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -759,10 +758,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -881,14 +880,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="22.3112244897959" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.5" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="20.4285714285714" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="22.1734693877551" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="25.0" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="30.3724489795918" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="18.4132653061224" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -955,20 +954,20 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G2" activeCellId="0" pane="topLeft" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.1020408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="18.5459183673469" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="19.8877551020408" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="21.6326530612245" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="25.6683673469388" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="21.5" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -1041,21 +1040,21 @@
   </sheetPr>
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H76" activeCellId="0" pane="topLeft" sqref="H76"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C92" activeCellId="0" pane="topLeft" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="39.3826530612245" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="33.3316326530612" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="35.3520408163265" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="33.6020408163265" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="14.2448979591837" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.6020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1356,7 +1355,9 @@
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1377,9 @@
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1399,9 @@
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>52</v>
       </c>
@@ -1416,7 +1421,9 @@
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="8" t="s">
         <v>57</v>
       </c>
@@ -1436,14 +1443,16 @@
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="8"/>
@@ -1456,7 +1465,9 @@
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="8" t="s">
         <v>61</v>
       </c>
@@ -1476,7 +1487,9 @@
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
@@ -1487,7 +1500,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="0" t="s">
         <v>23</v>
       </c>
@@ -1496,18 +1509,20 @@
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="0" t="s">
         <v>23</v>
       </c>
@@ -1516,18 +1531,20 @@
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="0" t="s">
         <v>23</v>
       </c>
@@ -1536,20 +1553,22 @@
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="0" t="s">
         <v>23</v>
       </c>
@@ -1558,20 +1577,22 @@
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="C24" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="0" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1601,9 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="8" t="s">
         <v>43</v>
       </c>
@@ -1588,10 +1611,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="0" t="s">
         <v>23</v>
       </c>
@@ -1600,27 +1623,31 @@
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
@@ -1640,7 +1667,9 @@
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
@@ -1660,7 +1689,9 @@
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
@@ -1680,7 +1711,9 @@
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1700,7 +1733,9 @@
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C31" s="5" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1755,9 @@
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
@@ -1740,7 +1777,9 @@
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
@@ -1760,15 +1799,17 @@
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="11"/>
@@ -1780,12 +1821,14 @@
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>65</v>
@@ -1800,18 +1843,20 @@
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="0" t="s">
@@ -1822,18 +1867,20 @@
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="0" t="s">
@@ -1844,15 +1891,17 @@
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="11"/>
@@ -1864,16 +1913,18 @@
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="0" t="s">
@@ -1884,7 +1935,9 @@
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1957,9 @@
       <c r="A41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1979,9 @@
       <c r="A42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C42" s="7" t="s">
         <v>52</v>
       </c>
@@ -1944,7 +2001,9 @@
       <c r="A43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
@@ -1964,7 +2023,9 @@
       <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +2033,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1984,7 +2045,9 @@
       <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>61</v>
       </c>
@@ -2004,7 +2067,9 @@
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2024,15 +2089,17 @@
       <c r="A47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C47" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="13"/>
@@ -2044,12 +2111,14 @@
       <c r="A48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>65</v>
@@ -2064,18 +2133,20 @@
       <c r="A49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C49" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="0" t="s">
@@ -2086,18 +2157,20 @@
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C50" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="0" t="s">
@@ -2108,7 +2181,9 @@
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C51" s="7" t="s">
         <v>43</v>
       </c>
@@ -2116,7 +2191,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2128,27 +2203,31 @@
       <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C52" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C53" s="8" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2247,9 @@
       <c r="A54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C54" s="8" t="s">
         <v>49</v>
       </c>
@@ -2188,7 +2269,9 @@
       <c r="A55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C55" s="8" t="s">
         <v>52</v>
       </c>
@@ -2208,7 +2291,9 @@
       <c r="A56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C56" s="8" t="s">
         <v>57</v>
       </c>
@@ -2228,15 +2313,17 @@
       <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C57" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>84</v>
+      <c r="E57" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -2248,7 +2335,9 @@
       <c r="A58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C58" s="8" t="s">
         <v>61</v>
       </c>
@@ -2268,7 +2357,9 @@
       <c r="A59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C59" s="8" t="s">
         <v>63</v>
       </c>
@@ -2288,15 +2379,17 @@
       <c r="A60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C60" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2308,12 +2401,14 @@
       <c r="A61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C61" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>65</v>
@@ -2328,18 +2423,20 @@
       <c r="A62" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="C62" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="0" t="s">
@@ -2350,18 +2447,20 @@
       <c r="A63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="C63" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="0" t="s">
@@ -2372,15 +2471,17 @@
       <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C64" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -2392,16 +2493,18 @@
       <c r="A65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="C65" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="0" t="s">
@@ -2412,7 +2515,9 @@
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +2537,9 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C67" s="5" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2559,9 @@
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C68" s="5" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2581,9 @@
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C69" s="5" t="s">
         <v>57</v>
       </c>
@@ -2492,15 +2603,17 @@
       <c r="A70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C70" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="11"/>
@@ -2512,16 +2625,18 @@
       <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C71" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="0" t="s">
@@ -2532,7 +2647,9 @@
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C72" s="7" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2669,9 @@
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C73" s="7" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +2691,9 @@
       <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C74" s="7" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2713,9 @@
       <c r="A75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C75" s="7" t="s">
         <v>57</v>
       </c>
@@ -2612,18 +2735,20 @@
       <c r="A76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C76" s="13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="0" t="s">
@@ -2634,18 +2759,20 @@
       <c r="A77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C77" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="0" t="s">
@@ -2656,18 +2783,20 @@
       <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B78" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C78" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="0" t="s">
@@ -2678,18 +2807,20 @@
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C79" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="0" t="s">
@@ -2700,18 +2831,20 @@
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C80" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="0" t="s">
@@ -2722,7 +2855,9 @@
       <c r="A81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C81" s="8" t="s">
         <v>25</v>
       </c>
@@ -2733,7 +2868,7 @@
       <c r="F81" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G81" s="9"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="0" t="s">
         <v>23</v>
       </c>
@@ -2742,7 +2877,9 @@
       <c r="A82" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C82" s="8" t="s">
         <v>49</v>
       </c>
@@ -2753,7 +2890,7 @@
         <v>51</v>
       </c>
       <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="0" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +2899,9 @@
       <c r="A83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C83" s="8" t="s">
         <v>52</v>
       </c>
@@ -2773,7 +2912,7 @@
         <v>53</v>
       </c>
       <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="0" t="s">
         <v>23</v>
       </c>
@@ -2782,7 +2921,9 @@
       <c r="A84" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C84" s="8" t="s">
         <v>57</v>
       </c>
@@ -2793,7 +2934,7 @@
       <c r="F84" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="9"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="0" t="s">
         <v>23</v>
       </c>
@@ -2802,20 +2943,22 @@
       <c r="A85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9" t="s">
-        <v>89</v>
+      <c r="B85" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="10"/>
       <c r="H85" s="0" t="s">
         <v>23</v>
       </c>
@@ -2824,20 +2967,22 @@
       <c r="A86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9" t="s">
-        <v>94</v>
+      <c r="B86" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="10"/>
       <c r="H86" s="0" t="s">
         <v>23</v>
       </c>
@@ -2846,20 +2991,22 @@
       <c r="A87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
-        <v>98</v>
+      <c r="B87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="10"/>
       <c r="H87" s="0" t="s">
         <v>23</v>
       </c>
@@ -2868,20 +3015,22 @@
       <c r="A88" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9" t="s">
-        <v>102</v>
+      <c r="B88" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" s="10"/>
       <c r="H88" s="0" t="s">
         <v>23</v>
       </c>
@@ -2890,20 +3039,22 @@
       <c r="A89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9" t="s">
-        <v>106</v>
+      <c r="B89" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="10"/>
       <c r="H89" s="0" t="s">
         <v>23</v>
       </c>
@@ -2912,20 +3063,22 @@
       <c r="A90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9" t="s">
-        <v>115</v>
+      <c r="B90" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F90" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="9"/>
+      <c r="F90" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" s="10"/>
       <c r="H90" s="0" t="s">
         <v>23</v>
       </c>
@@ -2934,16 +3087,18 @@
       <c r="A91" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>120</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="0" t="s">
         <v>23</v>
       </c>
@@ -2972,12 +3127,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -3038,9 +3193,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.9948979591837" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.8520408163265" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -3083,13 +3238,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.8673469387755" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.3112244897959" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="22.1734693877551" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="13.7040816326531" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3156,13 +3311,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.515306122449" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.5" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.3112244897959" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="13.030612244898" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="19.484693877551" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="27.5561224489796" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.484693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3235,12 +3390,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.8673469387755" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="22.0408163265306" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="19.3469387755102" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="27.9540816326531" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3307,13 +3462,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.2551020408163" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.4591836734694" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="12.3673469387755" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="26.7448979591837" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="30.3724489795918" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -3386,10 +3541,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.6989795918367" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="79.030612244898" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="17.3316326530612" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">

--- a/MyMojioWebsite/src/com/mojio/xls/MyVehicles.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/MyVehicles.xlsx
@@ -18,15 +18,15 @@
     <sheet name="EditNotselectedVehicleSave" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="EditNotSelectedVehicleCancel" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="SelectVehicle" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="VerifyActiveVehicleTableColoumn" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="VerifyAllVehicleTableColoumn" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="VerifyActiveVehicleTableColumn" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="VerifyAllVehicleTableColumn" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="213">
   <si>
     <t>TCID</t>
   </si>
@@ -64,10 +64,10 @@
     <t>SelectVehicle</t>
   </si>
   <si>
-    <t>VerifyActiveVehicleTableColoumn</t>
-  </si>
-  <si>
-    <t>VerifyAllVehicleTableColoumn</t>
+    <t>VerifyActiveVehicleTableColumn</t>
+  </si>
+  <si>
+    <t>VerifyAllVehicleTableColumn</t>
   </si>
   <si>
     <t>TSID</t>
@@ -226,7 +226,7 @@
     <t>Write IMEI number</t>
   </si>
   <si>
-    <t>writeInIMEIAfterImport</t>
+    <t>writeCurrentDateIMEIById</t>
   </si>
   <si>
     <t>iemiId</t>
@@ -268,7 +268,7 @@
     <t>Click on Edit for the selected vehicle</t>
   </si>
   <si>
-    <t>selectVehicleXpath</t>
+    <t>editSelectVehicleXpath</t>
   </si>
   <si>
     <t>TS019</t>
@@ -331,84 +331,81 @@
     <t>myvehiclesdropdownxpath</t>
   </si>
   <si>
+    <t>TS025</t>
+  </si>
+  <si>
+    <t>vehicleEditSubmitId</t>
+  </si>
+  <si>
+    <t>TS026</t>
+  </si>
+  <si>
+    <t>Verify the vehicle updated</t>
+  </si>
+  <si>
+    <t>col|Vehicle_Updated</t>
+  </si>
+  <si>
+    <t>TS027</t>
+  </si>
+  <si>
+    <t>TS028</t>
+  </si>
+  <si>
+    <t>Verify the Mojio ID is assigned to the vehicle</t>
+  </si>
+  <si>
+    <t>verifyMojioId</t>
+  </si>
+  <si>
+    <t>TS029</t>
+  </si>
+  <si>
+    <t>TS030</t>
+  </si>
+  <si>
+    <t>Click on My Mojios</t>
+  </si>
+  <si>
+    <t>myMojiosXpath</t>
+  </si>
+  <si>
+    <t>TS031</t>
+  </si>
+  <si>
+    <t>Verify the My Mojios page text</t>
+  </si>
+  <si>
+    <t>col|My_Mojio_Page</t>
+  </si>
+  <si>
+    <t>TS032</t>
+  </si>
+  <si>
+    <t>Click on unclaim and accept the alert</t>
+  </si>
+  <si>
+    <t>acceptAlertOnBtnByXpath</t>
+  </si>
+  <si>
+    <t>unclaimMojioXpath</t>
+  </si>
+  <si>
+    <t>TS033</t>
+  </si>
+  <si>
+    <t>Verify the unclaimed text present</t>
+  </si>
+  <si>
+    <t>col|Mojio_Unclaimed</t>
+  </si>
+  <si>
+    <t>TS034</t>
+  </si>
+  <si>
     <t>col|Mojio_Id</t>
   </si>
   <si>
-    <t>TS025</t>
-  </si>
-  <si>
-    <t>vehicleEditSubmitId</t>
-  </si>
-  <si>
-    <t>TS026</t>
-  </si>
-  <si>
-    <t>Verify the vehicle updated</t>
-  </si>
-  <si>
-    <t>col|Vehicle_Updated</t>
-  </si>
-  <si>
-    <t>TS027</t>
-  </si>
-  <si>
-    <t>TS028</t>
-  </si>
-  <si>
-    <t>Verify the Mojio ID is assigned to the vehicle</t>
-  </si>
-  <si>
-    <t>verifyMojioId</t>
-  </si>
-  <si>
-    <t>TS029</t>
-  </si>
-  <si>
-    <t>TS030</t>
-  </si>
-  <si>
-    <t>TS031</t>
-  </si>
-  <si>
-    <t>Click on My Mojios</t>
-  </si>
-  <si>
-    <t>myMojiosXpath</t>
-  </si>
-  <si>
-    <t>TS032</t>
-  </si>
-  <si>
-    <t>Verify the My Mojios page text</t>
-  </si>
-  <si>
-    <t>col|My_Mojio_Page</t>
-  </si>
-  <si>
-    <t>TS033</t>
-  </si>
-  <si>
-    <t>Click on unclaim and accept the alert</t>
-  </si>
-  <si>
-    <t>acceptAlertOnBtnByXpath</t>
-  </si>
-  <si>
-    <t>unclaimMojioXpath</t>
-  </si>
-  <si>
-    <t>TS034</t>
-  </si>
-  <si>
-    <t>Verify the unclaimed text present</t>
-  </si>
-  <si>
-    <t>col|Mojio_Unclaimed</t>
-  </si>
-  <si>
-    <t>TS035</t>
-  </si>
-  <si>
     <t>Click on Edit for a mojio</t>
   </si>
   <si>
@@ -424,18 +421,6 @@
     <t>vehicleIdDropdownId</t>
   </si>
   <si>
-    <t>TS036</t>
-  </si>
-  <si>
-    <t>TS037</t>
-  </si>
-  <si>
-    <t>TS038</t>
-  </si>
-  <si>
-    <t>editSelectedVehicleXpath</t>
-  </si>
-  <si>
     <t>selectDropdownValueByVisibleTextId</t>
   </si>
   <si>
@@ -454,12 +439,30 @@
     <t>textNotPresent</t>
   </si>
   <si>
+    <t>writeRandomIMEIById</t>
+  </si>
+  <si>
+    <t>Click on Edit for the not selected vehicle</t>
+  </si>
+  <si>
     <t>editNotSelectedVehicleXpath</t>
   </si>
   <si>
+    <t>Write odometer reading</t>
+  </si>
+  <si>
+    <t>vehicleOdometerId</t>
+  </si>
+  <si>
+    <t>col|Current_Odometer_Reading</t>
+  </si>
+  <si>
     <t>Select a Vehicle</t>
   </si>
   <si>
+    <t>makeActiveVehicleXpath</t>
+  </si>
+  <si>
     <t>Verify the Vehicle selected text present</t>
   </si>
   <si>
@@ -496,6 +499,15 @@
     <t>col|License_Plate_Column</t>
   </si>
   <si>
+    <t>Verify the Odometer column present</t>
+  </si>
+  <si>
+    <t>activeVehicleOdometerColumn</t>
+  </si>
+  <si>
+    <t>col|Odometer_Column</t>
+  </si>
+  <si>
     <t>Verify the Last Location column present</t>
   </si>
   <si>
@@ -523,19 +535,22 @@
     <t>allVehicleLicensePlateColumn</t>
   </si>
   <si>
+    <t>allVehicleOdometerColumn</t>
+  </si>
+  <si>
     <t>allVehicleLastLocationColumn</t>
   </si>
   <si>
     <t>allVehicleLastContactTimeColumn</t>
   </si>
   <si>
-    <t>Verify the Load Vehicle column present</t>
-  </si>
-  <si>
-    <t>allVehicleLoadVehicleColumn</t>
-  </si>
-  <si>
-    <t>col|Load_Vehicle_Column</t>
+    <t>Verify the Make Active column present</t>
+  </si>
+  <si>
+    <t>allVehicleMakeActiveColumn</t>
+  </si>
+  <si>
+    <t>col|Make_Active_Column</t>
   </si>
   <si>
     <t>Close the browser</t>
@@ -592,6 +607,9 @@
     <t>Vehicle successfully updated!</t>
   </si>
   <si>
+    <t>Current_Odometer_Reading</t>
+  </si>
+  <si>
     <t>Vehicle_name</t>
   </si>
   <si>
@@ -622,6 +640,9 @@
     <t>Last_Contact_Time_Column</t>
   </si>
   <si>
+    <t>Odometer_Column</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -637,10 +658,13 @@
     <t>LAST CONTACT TIME</t>
   </si>
   <si>
-    <t>Load_Vehicle_Column</t>
-  </si>
-  <si>
-    <t>LOAD VEHICLE</t>
+    <t>ODOMETER</t>
+  </si>
+  <si>
+    <t>Make_Active_Column</t>
+  </si>
+  <si>
+    <t>MAKE ACTIVE?</t>
   </si>
 </sst>
 </file>
@@ -679,7 +703,7 @@
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="10.5"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="7">
@@ -761,7 +785,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -798,10 +822,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -814,15 +834,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -930,7 +942,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C18" activeCellId="0" pane="topLeft" sqref="C18"/>
+      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,22 +1090,22 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>2</v>
@@ -1101,22 +1113,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>4</v>
@@ -1138,10 +1150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="J18" activeCellId="0" pane="topLeft" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1156,77 +1168,83 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1734693877551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1246,10 +1264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A44" activeCellId="0" pane="topLeft" sqref="A44"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K11" activeCellId="0" pane="topLeft" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1265,82 +1283,89 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.6326530612245"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6683673469388"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L1" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1360,10 +1385,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J9" activeCellId="0" pane="topLeft" sqref="J9"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A187" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D82" activeCellId="0" pane="topLeft" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1375,8 +1400,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3520408163265"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.6020408163265"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2448979591837"/>
-    <col collapsed="false" hidden="false" max="29" min="8" style="0" width="10.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="10.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1855,10 +1881,10 @@
       <c r="C25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="8"/>
@@ -1991,7 +2017,7 @@
       <c r="D32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F32" s="8"/>
@@ -2033,7 +2059,7 @@
         <v>87</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="8" t="s">
@@ -2052,7 +2078,7 @@
         <v>90</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="8" t="s">
@@ -2071,7 +2097,7 @@
         <v>87</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="8" t="s">
@@ -2092,7 +2118,7 @@
       <c r="F37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="8" t="s">
@@ -2110,17 +2136,15 @@
       <c r="E38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="11"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>41</v>
@@ -2129,36 +2153,36 @@
         <v>48</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="G40" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>79</v>
@@ -2166,7 +2190,7 @@
       <c r="D41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F41" s="8"/>
@@ -2177,94 +2201,94 @@
         <v>6</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D44" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="11"/>
       <c r="G46" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
@@ -2272,18 +2296,18 @@
         <v>6</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G47" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
@@ -2291,53 +2315,53 @@
         <v>6</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="11"/>
+      <c r="A49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -2346,17 +2370,17 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -2365,17 +2389,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F52" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -2384,19 +2410,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -2405,20 +2431,18 @@
         <v>7</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
@@ -2426,18 +2450,18 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G55" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
@@ -2445,17 +2469,17 @@
         <v>7</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G56" s="6"/>
     </row>
@@ -2464,18 +2488,18 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
@@ -2483,16 +2507,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2502,16 +2526,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2521,16 +2545,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2540,18 +2564,18 @@
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F61" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G61" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
@@ -2559,17 +2583,17 @@
         <v>7</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="G62" s="6"/>
     </row>
@@ -2578,18 +2602,18 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
@@ -2597,16 +2621,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2616,18 +2640,18 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G65" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
@@ -2635,18 +2659,18 @@
         <v>7</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
@@ -2654,18 +2678,18 @@
         <v>7</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="G67" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
@@ -2673,35 +2697,35 @@
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
       <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
@@ -2711,16 +2735,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
@@ -2730,18 +2754,20 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G71" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
@@ -2749,19 +2775,19 @@
         <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G72" s="7"/>
     </row>
@@ -2770,20 +2796,18 @@
         <v>7</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
@@ -2791,18 +2815,18 @@
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F74" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G74" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
@@ -2810,19 +2834,19 @@
         <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76">
       <c r="A76" s="6" t="s">
@@ -2832,13 +2856,13 @@
         <v>107</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -2848,19 +2872,19 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78">
       <c r="A78" s="6" t="s">
@@ -2869,16 +2893,16 @@
       <c r="B78" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>117</v>
+      <c r="C78" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79">
@@ -2886,18 +2910,18 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80">
@@ -2905,592 +2929,596 @@
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>131</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="A81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82">
+      <c r="A82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="A83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84">
+      <c r="A84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85">
+      <c r="A85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86">
+      <c r="A86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="E86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87">
+      <c r="A87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="7"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88">
       <c r="A88" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="G88" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89">
       <c r="A89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90">
       <c r="A90" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
       <c r="A91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="G91" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="16"/>
+      <c r="G96" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
       <c r="A97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G97" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
       <c r="A98" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G98" s="16"/>
+        <v>125</v>
+      </c>
+      <c r="G98" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="99">
       <c r="A99" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>135</v>
+        <v>48</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="16"/>
+      <c r="G99" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
       <c r="A100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>29</v>
+        <v>135</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="G100" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="101">
       <c r="A101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="16"/>
+      <c r="G101" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="102">
-      <c r="A102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="16"/>
+      <c r="A102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
-      <c r="A103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="16"/>
+      <c r="A103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="104">
-      <c r="A104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="A104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
+      <c r="A105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G104" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
-      <c r="A105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G105" s="16"/>
+      <c r="E105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="106">
-      <c r="A106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="16"/>
+      <c r="A106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="107">
-      <c r="A107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" s="16"/>
+      <c r="A107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="108">
-      <c r="A108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="16"/>
+      <c r="A108" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
       <c r="A109" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="G109" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
       <c r="A110" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="111">
@@ -3498,18 +3526,18 @@
         <v>9</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="6"/>
       <c r="G111" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="112">
@@ -3517,20 +3545,18 @@
         <v>9</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="113">
@@ -3538,20 +3564,18 @@
         <v>9</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F113" s="6"/>
       <c r="G113" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="114">
@@ -3559,18 +3583,18 @@
         <v>9</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F114" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G114" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
@@ -3578,73 +3602,73 @@
         <v>9</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G115" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="G115" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="116">
       <c r="A116" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="117">
       <c r="A117" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G117" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="118">
       <c r="A118" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>51</v>
+      <c r="E118" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -3654,17 +3678,17 @@
         <v>9</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -3673,16 +3697,16 @@
         <v>9</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>142</v>
+        <v>86</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -3692,56 +3716,58 @@
         <v>9</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G121" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
       <c r="A122" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="G122" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="123">
       <c r="A123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G123" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="124">
@@ -3749,18 +3775,20 @@
         <v>9</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F124" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G124" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
@@ -3768,19 +3796,19 @@
         <v>9</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="G125" s="7"/>
     </row>
@@ -3789,39 +3817,37 @@
         <v>9</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G126" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
       <c r="A127" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F127" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G127" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
@@ -3829,53 +3855,53 @@
         <v>9</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E128" s="6"/>
-      <c r="F128" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
-      <c r="A129" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="7"/>
+      <c r="A129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
       <c r="A130" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G130" s="8"/>
     </row>
@@ -3884,17 +3910,17 @@
         <v>10</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G131" s="8"/>
     </row>
@@ -3903,17 +3929,19 @@
         <v>10</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F132" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G132" s="8"/>
     </row>
@@ -3922,19 +3950,19 @@
         <v>10</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G133" s="8"/>
     </row>
@@ -3943,20 +3971,18 @@
         <v>10</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F134" s="8"/>
       <c r="G134" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
@@ -3964,18 +3990,18 @@
         <v>10</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="G135" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="136">
@@ -3983,17 +4009,17 @@
         <v>10</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G136" s="8"/>
     </row>
@@ -4002,18 +4028,18 @@
         <v>10</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F137" s="8"/>
       <c r="G137" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="138">
@@ -4021,16 +4047,16 @@
         <v>10</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
@@ -4040,18 +4066,18 @@
         <v>10</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F139" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="G139" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="140">
@@ -4059,18 +4085,18 @@
         <v>10</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" s="8"/>
       <c r="G140" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="141">
@@ -4078,18 +4104,18 @@
         <v>10</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E141" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F141" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G141" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="142">
@@ -4097,18 +4123,18 @@
         <v>10</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F142" s="8"/>
       <c r="G142" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="143">
@@ -4116,16 +4142,16 @@
         <v>10</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
@@ -4135,16 +4161,16 @@
         <v>10</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
@@ -4154,18 +4180,20 @@
         <v>10</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F145" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="G145" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="146">
@@ -4173,19 +4201,19 @@
         <v>10</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="G146" s="8"/>
     </row>
@@ -4194,19 +4222,19 @@
         <v>10</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G147" s="8"/>
     </row>
@@ -4215,16 +4243,16 @@
         <v>10</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
@@ -4234,17 +4262,17 @@
         <v>10</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G149" s="8"/>
     </row>
@@ -4253,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>57</v>
@@ -4263,7 +4291,7 @@
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="11"/>
+      <c r="G150" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="151">
       <c r="A151" s="4" t="s">
@@ -4419,7 +4447,7 @@
       <c r="F158" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G158" s="16"/>
+      <c r="G158" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="159">
       <c r="A159" s="4" t="s">
@@ -4438,7 +4466,7 @@
         <v>49</v>
       </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="16"/>
+      <c r="G159" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="160">
       <c r="A160" s="4" t="s">
@@ -4457,7 +4485,7 @@
         <v>51</v>
       </c>
       <c r="F160" s="4"/>
-      <c r="G160" s="16"/>
+      <c r="G160" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="161">
       <c r="A161" s="4" t="s">
@@ -4476,7 +4504,7 @@
       <c r="F161" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G161" s="16"/>
+      <c r="G161" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="162">
       <c r="A162" s="4" t="s">
@@ -4485,17 +4513,17 @@
       <c r="B162" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F162" s="4"/>
-      <c r="G162" s="16"/>
+      <c r="G162" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="163">
       <c r="A163" s="4" t="s">
@@ -4504,17 +4532,17 @@
       <c r="B163" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C163" s="16" t="s">
-        <v>144</v>
+      <c r="C163" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G163" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="G163" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
       <c r="A164" s="4" t="s">
@@ -4531,7 +4559,7 @@
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="16"/>
+      <c r="G164" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="165">
       <c r="A165" s="6" t="s">
@@ -4754,16 +4782,16 @@
         <v>68</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G176" s="7"/>
     </row>
@@ -4775,16 +4803,16 @@
         <v>71</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G177" s="7"/>
     </row>
@@ -4796,16 +4824,16 @@
         <v>74</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G178" s="7"/>
     </row>
@@ -4817,16 +4845,16 @@
         <v>75</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G179" s="7"/>
     </row>
@@ -4838,16 +4866,16 @@
         <v>76</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G180" s="7"/>
     </row>
@@ -4858,51 +4886,53 @@
       <c r="B181" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G181" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="182">
+      <c r="A182" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" s="8"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="183">
       <c r="A183" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G183" s="8"/>
     </row>
@@ -4911,17 +4941,17 @@
         <v>13</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G184" s="8"/>
     </row>
@@ -4930,19 +4960,17 @@
         <v>13</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E185" s="8"/>
       <c r="F185" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G185" s="8"/>
     </row>
@@ -4951,19 +4979,19 @@
         <v>13</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G186" s="8"/>
     </row>
@@ -4972,18 +5000,20 @@
         <v>13</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F187" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G187" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="188">
@@ -4991,18 +5021,18 @@
         <v>13</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F188" s="8"/>
       <c r="G188" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="189">
@@ -5010,219 +5040,259 @@
         <v>13</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="G189" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="190">
       <c r="A190" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F190" s="8"/>
-      <c r="G190" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="191">
       <c r="A191" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F191" s="8"/>
-      <c r="G191" s="11"/>
+      <c r="G191" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="192">
       <c r="A192" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G192" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F192" s="8"/>
+      <c r="G192" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="193">
       <c r="A193" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>146</v>
+        <v>64</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G193" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G193" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="194">
       <c r="A194" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C194" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F194" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G194" s="11"/>
+      <c r="G194" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="195">
       <c r="A195" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C195" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F195" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D195" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F195" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G195" s="11"/>
+      <c r="G195" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="196">
       <c r="A196" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C196" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F196" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G196" s="11"/>
+      <c r="G196" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="197">
       <c r="A197" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C197" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F197" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D197" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G197" s="11"/>
+      <c r="G197" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="198">
       <c r="A198" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>167</v>
+        <v>76</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G198" s="11"/>
+        <v>170</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G198" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="199">
       <c r="A199" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B199" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G199" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="200">
+      <c r="A200" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C199" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D199" s="8" t="s">
+      <c r="C200" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G200" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="201">
+      <c r="A201" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E199" s="8"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5258,16 +5328,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -5275,16 +5345,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -5325,19 +5395,19 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -5345,19 +5415,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>4</v>
@@ -5381,8 +5451,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F11" activeCellId="0" pane="topLeft" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5402,31 +5472,31 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>2</v>
@@ -5434,31 +5504,31 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="21" t="n">
+      <c r="F2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="18" t="n">
         <v>359878765633665</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>187</v>
+      <c r="I2" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>4</v>
@@ -5503,31 +5573,31 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>2</v>
@@ -5535,31 +5605,31 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="21" t="n">
+      <c r="F2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="18" t="n">
         <v>359878765633665</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>187</v>
+      <c r="I2" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>4</v>
@@ -5581,10 +5651,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C12" activeCellId="0" pane="topLeft" sqref="C12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5597,78 +5667,85 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3112244897959"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.484693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1377551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.484693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="F2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="G2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="17" t="n">
+        <v>66000</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5688,10 +5765,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G44" activeCellId="0" pane="topLeft" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5703,72 +5780,79 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3622448979592"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8673469387755"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J1" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="F2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="17" t="n">
+        <v>66000</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5788,10 +5872,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B15" activeCellId="0" pane="topLeft" sqref="B15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5803,79 +5887,86 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2551020408163"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4591836734694"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.4234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7448979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.7448979591837"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>188</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="F2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="G2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="17" t="n">
+        <v>660000</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyMojioWebsite/src/com/mojio/xls/MyVehicles.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/MyVehicles.xlsx
@@ -202,7 +202,7 @@
     <t>Close Browser</t>
   </si>
   <si>
-    <t>closeBroswer</t>
+    <t>closebrowser</t>
   </si>
   <si>
     <t>TS008</t>
@@ -942,7 +942,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
+      <selection activeCell="C15" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
+      <selection activeCell="B22" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J18" activeCellId="0" pane="topLeft" sqref="J18"/>
+      <selection activeCell="J18" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K11" activeCellId="0" pane="topLeft" sqref="K11"/>
+      <selection activeCell="K11" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1387,8 +1387,8 @@
   </sheetPr>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A187" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D82" activeCellId="0" pane="topLeft" sqref="D82"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A178" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D82" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5313,7 +5313,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5379,7 +5379,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5452,7 +5452,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F11" activeCellId="0" pane="topLeft" sqref="F11"/>
+      <selection activeCell="F11" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5553,7 +5553,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5654,7 +5654,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
+      <selection activeCell="G17" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5768,7 +5768,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G44" activeCellId="0" pane="topLeft" sqref="G44"/>
+      <selection activeCell="G44" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5875,7 +5875,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
+      <selection activeCell="G17" activeCellId="9" pane="topLeft" sqref="D14 D48 D80 D101 D128 D150 D164 D182 D201 G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
